--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R4fd06f6dbbc34271"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Re1761158547041c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd604d98c5f264de9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R582f93cdfc3c49c9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R151a7beee7864bdc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R119d96a68a864bcd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Re1761158547041c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R41e941fb3ef04774"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R582f93cdfc3c49c9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57e66f191a9f4efa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R119d96a68a864bcd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2364b382c5424147"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R41e941fb3ef04774"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R7ab5c6d65c474a06"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57e66f191a9f4efa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d16093e71f34199"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2364b382c5424147"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8612b668547a472a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R7ab5c6d65c474a06"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R0e67ca14a4d74fc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d16093e71f34199"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0446c17876ae4ec3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8612b668547a472a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdbbf5da7329b4b0f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R0e67ca14a4d74fc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Recc16bf3c2fa4727"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0446c17876ae4ec3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R857e7a0af23346da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdbbf5da7329b4b0f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R084a8e72d30b43da"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Recc16bf3c2fa4727"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rbb6bba0b79f64472"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R857e7a0af23346da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1853fde64b534dac"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R084a8e72d30b43da"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5871b95a0e244528"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rbb6bba0b79f64472"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R09a40d26bd7940ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1853fde64b534dac"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6545032550384e33"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5871b95a0e244528"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe486f5c4a9b4b47"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R09a40d26bd7940ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rf884dfd72d114304"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6545032550384e33"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8bd5414acc89484d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe486f5c4a9b4b47"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4fe04a28b9394458"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rf884dfd72d114304"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R6f7a388f6d3148ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8bd5414acc89484d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e6c8ecffee04ee3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4fe04a28b9394458"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R730c20b6320c4e72"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R6f7a388f6d3148ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R430be6c32b904155"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e6c8ecffee04ee3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2c2523d85e7403b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R730c20b6320c4e72"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9979bb8f9734dd2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R430be6c32b904155"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rc85d4cf099f04a9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2c2523d85e7403b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b43118cd4c64cde"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9979bb8f9734dd2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6709351a5f2b4f3b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Rc85d4cf099f04a9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R6e94ea6276dc44e6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b43118cd4c64cde"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red6acbe7589f4647"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6709351a5f2b4f3b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdafa89de16ae4264"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/093_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R6e94ea6276dc44e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R10c3babe224940cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red6acbe7589f4647"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8d1d441597c748f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -234,6 +234,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdafa89de16ae4264"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R337ceb5b4fda48fe"/>
 </x:worksheet>
 </file>